--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Explicit Memory/Tadpole_ET_summary_ER_250ms_NoLabels_2.25-2.5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Explicit Memory/Tadpole_ET_summary_ER_250ms_NoLabels_2.25-2.5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -355,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9715,6 +9716,466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>130</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>131</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
+      </c>
+      <c r="U78" s="3">
+        <v>0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+      <c r="X78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AF78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AK78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AM78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>133</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3">
+        <v>0</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0</v>
+      </c>
+      <c r="V79" s="3">
+        <v>0</v>
+      </c>
+      <c r="W79" s="3">
+        <v>0</v>
+      </c>
+      <c r="X79" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AD79" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AE79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AG79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AK79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>134</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3">
+        <v>0</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="V80" s="3">
+        <v>0</v>
+      </c>
+      <c r="W80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="AK80" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AL80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AN80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
